--- a/DIAGRAMA DE GANTT.xlsx
+++ b/DIAGRAMA DE GANTT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>TAREAS</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>1 - 7 MAYO</t>
+  </si>
+  <si>
+    <t>8 - 14 MAYO</t>
+  </si>
+  <si>
+    <t>15 - 21 MAYO</t>
   </si>
   <si>
     <t>Funcionalidad de las habilidades de los pokemons.</t>
@@ -143,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,14 +182,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5A6BD"/>
-        <bgColor rgb="FFD5A6BD"/>
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5A6BD"/>
+        <bgColor rgb="FFD5A6BD"/>
       </patternFill>
     </fill>
     <fill>
@@ -265,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -279,27 +291,33 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,318 +552,401 @@
       <c r="P1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="W1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8">
         <v>17.0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>18.0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>19.0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>20.0</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>21.0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>22.0</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="8">
         <v>23.0</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="8">
         <v>24.0</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="8">
         <v>25.0</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="8">
         <v>26.0</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="8">
         <v>27.0</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="8">
         <v>28.0</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="8">
         <v>29.0</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="8">
         <v>30.0</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="8">
         <v>1.0</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="8">
         <v>2.0</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="8">
         <v>3.0</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="8">
         <v>4.0</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="8">
         <v>5.0</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="8">
         <v>6.0</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="8">
         <v>7.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="10"/>
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="A8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="P10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="P10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+      <c r="A12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="12"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="A16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="12"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="12"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="12"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="10"/>
+      <c r="A22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="A23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="10"/>
+      <c r="A24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="P24:V24"/>
-    <mergeCell ref="P10:V10"/>
+  <mergeCells count="30">
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="P6:V6"/>
     <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="AD1:AJ1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:O1"/>
@@ -853,6 +954,21 @@
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="I5:O5"/>
+    <mergeCell ref="W19:AC19"/>
+    <mergeCell ref="W20:AC20"/>
+    <mergeCell ref="W14:AC14"/>
+    <mergeCell ref="W18:AC18"/>
+    <mergeCell ref="W15:AC15"/>
+    <mergeCell ref="W23:AC23"/>
+    <mergeCell ref="W21:AC21"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="P24:V24"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD16:AJ16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
